--- a/data/cuadros/Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
+++ b/data/cuadros/Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="935" firstSheet="4" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="935" firstSheet="4" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="01-01" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <sheet name="05-10" sheetId="32" r:id="rId31"/>
     <sheet name="05-11" sheetId="17" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -54091,6 +54091,12 @@
     <xf numFmtId="0" fontId="381" fillId="2584" borderId="2614" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="880" fillId="3075" borderId="3114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="3080" borderId="3119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="881" fillId="3076" borderId="3115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -54114,12 +54120,6 @@
     </xf>
     <xf numFmtId="0" fontId="889" fillId="3084" borderId="3123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="880" fillId="3075" borderId="3114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="885" fillId="3080" borderId="3119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="415" fillId="2617" borderId="2648" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -58576,53 +58576,55 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2901" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3090" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3082" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3082" t="s">
+      <c r="B2" s="3084" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3083" t="s">
+      <c r="C2" s="3085" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3084" t="s">
+      <c r="D2" s="3086" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3085" t="s">
+      <c r="E2" s="3087" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3091"/>
-      <c r="B3" s="3086" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3083"/>
+      <c r="B3" s="3088" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3087" t="s">
+      <c r="C3" s="3089" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3088" t="s">
+      <c r="D3" s="3090" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3089" t="s">
+      <c r="E3" s="3091" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2861" t="s">
         <v>64</v>
       </c>
@@ -58638,8 +58640,16 @@
       <c r="E4" s="2865" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>100*(C4-B4)/B4</f>
+        <v>-7.4754841420182077</v>
+      </c>
+      <c r="I4">
+        <f>100*(E4-D4)/D4</f>
+        <v>22.02951957315134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2866" t="s">
         <v>65</v>
       </c>
@@ -58655,8 +58665,16 @@
       <c r="E5" s="2870" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:I11" si="0">100*(C5-B5)/B5</f>
+        <v>10.925853577396623</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>19.355099728931496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2871" t="s">
         <v>66</v>
       </c>
@@ -58672,8 +58690,16 @@
       <c r="E6" s="2875" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>18.255046427927489</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>11.202128296009249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2876" t="s">
         <v>67</v>
       </c>
@@ -58689,8 +58715,16 @@
       <c r="E7" s="2880" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-7.846885834617459</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>13.904905914041102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2881" t="s">
         <v>68</v>
       </c>
@@ -58706,8 +58740,16 @@
       <c r="E8" s="2885" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-6.9790809931325031</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2.0595958091633242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2886" t="s">
         <v>69</v>
       </c>
@@ -58723,8 +58765,16 @@
       <c r="E9" s="2890" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-6.4894810567547561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2891" t="s">
         <v>70</v>
       </c>
@@ -58740,8 +58790,16 @@
       <c r="E10" s="2895" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>47.084032510712717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2896" t="s">
         <v>378</v>
       </c>
@@ -58756,6 +58814,28 @@
       </c>
       <c r="E11" s="2900" t="s">
         <v>997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.91817579423119577</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>16.930113916214424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>100*(C11-B11)/B11</f>
+        <v>0.91817579423119577</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="1">100*(D11-C11)/C11</f>
+        <v>-40.653940197788913</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>16.930113916214424</v>
       </c>
     </row>
   </sheetData>
@@ -58776,7 +58856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -61338,7 +61418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
